--- a/document/项目安排计划/项目工作进度计划-曹俊燚.xlsx
+++ b/document/项目安排计划/项目工作进度计划-曹俊燚.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/项目安排计划/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DBDA7-DB41-C748-AB97-CE797E9484BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F1B13-D904-E94F-9F6B-DEFC60A1E2ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" activeTab="2" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" activeTab="2" xr2:uid="{05BAF0C2-7755-D34B-B378-ADA661C16BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="140">
   <si>
     <t>基于区块链的安全数据共享系统工作计划概况</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>界面UI评审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019.08.30-2019.09.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,14 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求分析汇报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面原型汇报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>概要设计汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -568,9 +556,6 @@
     <t>界面评审</t>
   </si>
   <si>
-    <t>赵梓清待定</t>
-  </si>
-  <si>
     <t>阶段文档：需求规格说明书、界面UI设计图</t>
   </si>
   <si>
@@ -642,6 +627,22 @@
   </si>
   <si>
     <t>2019.08.29 13:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.08.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求分析内部评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面UI内部评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.09.02 13:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1262,15 +1263,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1319,17 +1314,29 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1341,10 +1348,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1408,18 +1412,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888914A-0887-C84A-ABDA-E01C184CA597}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="67" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView topLeftCell="A7" zoomScale="82" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1837,17 +1829,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60" customHeight="1" thickBot="1">
-      <c r="A1" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="59"/>
+      <c r="A1" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -1863,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>11</v>
@@ -1872,89 +1864,89 @@
         <v>14</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="41" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="66" t="s">
+      <c r="E3" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="73" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="41" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="73"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" ht="41" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="73"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="74"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:9" ht="51">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1963,118 +1955,114 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="75" t="s">
-        <v>58</v>
+      <c r="E8" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="52" t="s">
+      <c r="G8" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="54" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="68">
-      <c r="A9" s="78"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="49"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="78"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
+      <c r="C10" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="6" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17">
-      <c r="A11" s="78"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
+      <c r="C11" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="6" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:9" ht="136">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="53" t="s">
-        <v>58</v>
+      <c r="E13" s="45" t="s">
+        <v>57</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>91</v>
+      <c r="G13" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>25</v>
@@ -2084,56 +2072,56 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="49" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="53"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="34">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="53"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="68">
-      <c r="A16" s="53"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="51" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="45" t="s">
         <v>25</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -2141,303 +2129,303 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="53"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="102">
-      <c r="A18" s="53"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+        <v>52</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17">
-      <c r="A19" s="53"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+        <v>91</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="34">
-      <c r="A20" s="53"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="G20" s="45"/>
       <c r="H20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
+      <c r="A21" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="1:9" ht="34">
       <c r="A22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="53" t="s">
-        <v>58</v>
+      <c r="E22" s="45" t="s">
+        <v>57</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="68">
       <c r="B23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="6" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="53" t="s">
+      <c r="B25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16" customHeight="1">
+      <c r="A26" s="45"/>
+      <c r="B26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="51"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="51"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="53" t="s">
+      <c r="B30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53" t="s">
+      <c r="E30" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="49"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="49"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="45"/>
+      <c r="B31" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="53"/>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I31" s="53"/>
+        <v>87</v>
+      </c>
+      <c r="I31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="H8:H11"/>
     <mergeCell ref="D13:D20"/>
     <mergeCell ref="E13:E20"/>
     <mergeCell ref="I30:I31"/>
@@ -2454,33 +2442,34 @@
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E050A6-F283-B644-B490-2BE7379117EF}">
-  <dimension ref="A1:AR40"/>
+  <dimension ref="A1:BZ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2494,61 +2483,61 @@
   <sheetData>
     <row r="1" spans="1:44" ht="17" thickBot="1">
       <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="N1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="Q1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" t="s">
         <v>95</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>96</v>
-      </c>
-      <c r="S1" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="18" thickTop="1" thickBot="1">
@@ -2618,78 +2607,78 @@
       <c r="V2" s="13"/>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>103</v>
+      <c r="A3" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>100</v>
       </c>
       <c r="C3" s="15"/>
       <c r="I3" s="11"/>
       <c r="P3" s="11"/>
       <c r="V3" s="15"/>
       <c r="W3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:44">
-      <c r="A4" s="84"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="16"/>
       <c r="I4" s="11"/>
       <c r="P4" s="11"/>
       <c r="V4" s="16"/>
       <c r="W4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="84"/>
-      <c r="B5" s="87"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="17"/>
       <c r="I5" s="11"/>
       <c r="P5" s="11"/>
       <c r="V5" s="17"/>
       <c r="W5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="84"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="18"/>
       <c r="I6" s="11"/>
       <c r="P6" s="11"/>
       <c r="V6" s="18"/>
       <c r="W6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:44" ht="17" thickBot="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="19"/>
       <c r="I7" s="11"/>
       <c r="P7" s="11"/>
       <c r="V7" s="19"/>
       <c r="W7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:44" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="A8" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8" s="21"/>
       <c r="I8" s="23"/>
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="91" t="s">
-        <v>111</v>
+      <c r="A9" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>108</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -2697,25 +2686,25 @@
       <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="81"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="I10" s="11"/>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="81"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="I11" s="11"/>
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="81"/>
-      <c r="B12" s="92" t="s">
-        <v>112</v>
+      <c r="A12" s="78"/>
+      <c r="B12" s="89" t="s">
+        <v>109</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -2724,8 +2713,8 @@
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="81"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -2733,8 +2722,8 @@
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="81"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -2742,8 +2731,8 @@
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" s="81"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -2751,9 +2740,9 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:44" s="24" customFormat="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="47" t="s">
-        <v>113</v>
+      <c r="A16" s="86"/>
+      <c r="B16" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -2798,22 +2787,93 @@
       <c r="AQ16"/>
       <c r="AR16"/>
     </row>
-    <row r="17" spans="1:17" s="27" customFormat="1" ht="17" thickBot="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="P17" s="28"/>
-    </row>
-    <row r="18" spans="1:17" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="17" spans="1:78" s="26" customFormat="1" ht="17" thickBot="1">
+      <c r="A17" s="87"/>
+      <c r="B17" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" s="19"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+      <c r="BE17"/>
+      <c r="BF17"/>
+      <c r="BG17"/>
+      <c r="BH17"/>
+      <c r="BI17"/>
+      <c r="BJ17"/>
+      <c r="BK17"/>
+      <c r="BL17"/>
+      <c r="BM17"/>
+      <c r="BN17"/>
+      <c r="BO17"/>
+      <c r="BP17"/>
+      <c r="BQ17"/>
+      <c r="BR17"/>
+      <c r="BS17"/>
+      <c r="BT17"/>
+      <c r="BU17"/>
+      <c r="BV17"/>
+      <c r="BW17"/>
+      <c r="BX17"/>
+      <c r="BY17"/>
+      <c r="BZ17"/>
+    </row>
+    <row r="18" spans="1:78" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="A18" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="29"/>
+        <v>113</v>
+      </c>
+      <c r="B18" s="27"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
@@ -2823,12 +2883,12 @@
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>119</v>
+    <row r="19" spans="1:78">
+      <c r="A19" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>115</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -2836,46 +2896,46 @@
       <c r="I19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="81"/>
-      <c r="B20" s="92"/>
+    <row r="20" spans="1:78">
+      <c r="A20" s="78"/>
+      <c r="B20" s="89"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="I20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="81"/>
-      <c r="B21" s="92"/>
+    <row r="21" spans="1:78">
+      <c r="A21" s="78"/>
+      <c r="B21" s="89"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="I21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="81"/>
-      <c r="B22" s="93" t="s">
-        <v>120</v>
+    <row r="22" spans="1:78">
+      <c r="A22" s="78"/>
+      <c r="B22" s="90" t="s">
+        <v>116</v>
       </c>
       <c r="F22" s="18"/>
       <c r="I22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="81"/>
-      <c r="B23" s="93"/>
+    <row r="23" spans="1:78">
+      <c r="A23" s="78"/>
+      <c r="B23" s="90"/>
       <c r="F23" s="17"/>
       <c r="I23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="81"/>
-      <c r="B24" s="93" t="s">
-        <v>121</v>
+    <row r="24" spans="1:78">
+      <c r="A24" s="78"/>
+      <c r="B24" s="90" t="s">
+        <v>117</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -2883,12 +2943,12 @@
       <c r="N24" s="15"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="81"/>
-      <c r="B25" s="93"/>
+    <row r="25" spans="1:78">
+      <c r="A25" s="78"/>
+      <c r="B25" s="90"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="31"/>
+      <c r="I25" s="29"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -2896,12 +2956,12 @@
       <c r="N25" s="18"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="81"/>
-      <c r="B26" s="93"/>
+    <row r="26" spans="1:78">
+      <c r="A26" s="78"/>
+      <c r="B26" s="90"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="32"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
@@ -2909,12 +2969,12 @@
       <c r="N26" s="17"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="81"/>
-      <c r="B27" s="93"/>
+    <row r="27" spans="1:78">
+      <c r="A27" s="78"/>
+      <c r="B27" s="90"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="33"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
@@ -2922,12 +2982,12 @@
       <c r="N27" s="16"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="81"/>
-      <c r="B28" s="93"/>
+    <row r="28" spans="1:78">
+      <c r="A28" s="78"/>
+      <c r="B28" s="90"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="34"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -2935,32 +2995,32 @@
       <c r="N28" s="19"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:17" s="24" customFormat="1" ht="17">
-      <c r="A29" s="89"/>
-      <c r="B29" s="35" t="s">
-        <v>122</v>
+    <row r="29" spans="1:78" s="24" customFormat="1" ht="17">
+      <c r="A29" s="86"/>
+      <c r="B29" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I29" s="25"/>
       <c r="P29" s="25"/>
     </row>
-    <row r="30" spans="1:17" ht="17" thickBot="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="36" t="s">
-        <v>123</v>
+    <row r="30" spans="1:78" ht="17" thickBot="1">
+      <c r="A30" s="77"/>
+      <c r="B30" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="33"/>
+      <c r="I30" s="31"/>
       <c r="P30" s="11"/>
     </row>
-    <row r="31" spans="1:17" s="22" customFormat="1" ht="17" thickBot="1">
+    <row r="31" spans="1:78" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="A31" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B31" s="37"/>
+        <v>120</v>
+      </c>
+      <c r="B31" s="35"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
@@ -2971,21 +3031,21 @@
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
     </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>126</v>
+    <row r="32" spans="1:78">
+      <c r="A32" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>122</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="16"/>
       <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:21" ht="17" thickBot="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="36" t="s">
-        <v>127</v>
+      <c r="A33" s="77"/>
+      <c r="B33" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="I33" s="11"/>
       <c r="K33" s="16"/>
@@ -2997,9 +3057,9 @@
     </row>
     <row r="34" spans="1:21" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="A34" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="37"/>
+        <v>124</v>
+      </c>
+      <c r="B34" s="35"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
@@ -3012,36 +3072,36 @@
       <c r="R34" s="23"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="79" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>130</v>
+      <c r="A35" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="P35" s="39"/>
+      <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="81"/>
-      <c r="B36" s="40" t="s">
-        <v>131</v>
+      <c r="A36" s="78"/>
+      <c r="B36" s="38" t="s">
+        <v>127</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="P36" s="31"/>
+      <c r="P36" s="29"/>
     </row>
     <row r="37" spans="1:21" ht="17" thickBot="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="36" t="s">
-        <v>132</v>
+      <c r="A37" s="77"/>
+      <c r="B37" s="34" t="s">
+        <v>128</v>
       </c>
       <c r="I37" s="11"/>
-      <c r="P37" s="31"/>
+      <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:21" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="A38" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="37"/>
+        <v>129</v>
+      </c>
+      <c r="B38" s="35"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
@@ -3053,30 +3113,30 @@
       <c r="Q38" s="23"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>135</v>
+      <c r="A39" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="I39" s="11"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-    </row>
-    <row r="40" spans="1:21" s="43" customFormat="1" ht="17" thickBot="1">
-      <c r="A40" s="82"/>
-      <c r="B40" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="I40" s="44"/>
-      <c r="P40" s="44"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+    </row>
+    <row r="40" spans="1:21" s="41" customFormat="1" ht="17" thickBot="1">
+      <c r="A40" s="79"/>
+      <c r="B40" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="42"/>
+      <c r="P40" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3095,5 +3155,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/document/项目安排计划/项目工作进度计划-曹俊燚.xlsx
+++ b/document/项目安排计划/项目工作进度计划-曹俊燚.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1165C030-86E2-2049-B828-3520EF49BDE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2AE882-ABFC-DC4C-8C86-2243C6D5852D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="14300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="4" r:id="rId1"/>
@@ -2145,99 +2145,102 @@
     <xf numFmtId="0" fontId="33" fillId="39" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2274,6 +2277,24 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2283,29 +2304,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -2793,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5208A4A-0CCA-7A4D-B17A-0F3F8A32E141}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
@@ -2810,17 +2810,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2852,197 +2852,197 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="81" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="78"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="82"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="78"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="91"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="92"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" ht="16" thickBot="1">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
     </row>
     <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="62" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="78" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="90" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60">
-      <c r="A9" s="70"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="62"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="91"/>
     </row>
     <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="70"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="70"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="70"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="70"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="88"/>
       <c r="I11" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
     </row>
     <row r="13" spans="1:9" ht="120">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="89" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="89" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="91" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -3053,17 +3053,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="62" t="s">
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="63"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="17" t="s">
         <v>63</v>
       </c>
@@ -3072,15 +3072,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="17" t="s">
         <v>66</v>
       </c>
@@ -3089,20 +3089,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60">
-      <c r="A16" s="63"/>
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="89"/>
+      <c r="B16" s="91" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63" t="s">
+      <c r="G16" s="89"/>
+      <c r="H16" s="89" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="29" t="s">
@@ -3110,53 +3110,53 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="63"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="90">
-      <c r="A18" s="63"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="63"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="63"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="17" t="s">
         <v>77</v>
       </c>
@@ -3165,19 +3165,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="63"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="63"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="17" t="s">
         <v>33</v>
       </c>
@@ -3186,17 +3186,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="17" t="s">
@@ -3208,19 +3208,19 @@
       <c r="C22" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="63" t="s">
+      <c r="E22" s="89" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="G22" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="63" t="s">
+      <c r="H22" s="89" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="17" t="s">
@@ -3234,32 +3234,32 @@
       <c r="C23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
       <c r="I23" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="89" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -3268,17 +3268,17 @@
       <c r="C25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="89" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63" t="s">
+      <c r="G25" s="89"/>
+      <c r="H25" s="89" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="17" t="s">
@@ -3286,65 +3286,65 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="63"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63" t="s">
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="62" t="s">
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="91" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="62"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="91"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="62"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="91"/>
     </row>
     <row r="29" spans="1:9" ht="16">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="89" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -3353,61 +3353,59 @@
       <c r="C30" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="89" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="63" t="s">
+      <c r="I30" s="89" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="63"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="63"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="F26:F28"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A13:A20"/>
@@ -3423,21 +3421,23 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3588,10 +3588,10 @@
       <c r="V2" s="34"/>
     </row>
     <row r="3" spans="1:44" ht="14">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="36"/>
@@ -3603,8 +3603,8 @@
       </c>
     </row>
     <row r="4" spans="1:44" ht="14">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="37"/>
       <c r="I4" s="32"/>
       <c r="P4" s="32"/>
@@ -3614,8 +3614,8 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="14">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="38"/>
       <c r="I5" s="32"/>
       <c r="P5" s="32"/>
@@ -3625,8 +3625,8 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="14">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="60"/>
       <c r="I6" s="32"/>
       <c r="P6" s="32"/>
@@ -3636,8 +3636,8 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="15" thickBot="1">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="59"/>
       <c r="I7" s="32"/>
       <c r="P7" s="32"/>
@@ -3655,10 +3655,10 @@
       <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:44" ht="14">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="103" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="36"/>
@@ -3667,24 +3667,24 @@
       <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:44" ht="14">
-      <c r="A10" s="95"/>
-      <c r="B10" s="103"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
       <c r="I10" s="32"/>
       <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:44" ht="15" thickBot="1">
-      <c r="A11" s="95"/>
-      <c r="B11" s="103"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="I11" s="32"/>
       <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:44" ht="14">
-      <c r="A12" s="95"/>
-      <c r="B12" s="93" t="s">
+      <c r="A12" s="96"/>
+      <c r="B12" s="94" t="s">
         <v>127</v>
       </c>
       <c r="C12" s="36"/>
@@ -3694,8 +3694,8 @@
       <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:44" ht="14">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
@@ -3703,8 +3703,8 @@
       <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:44" ht="14">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -3712,8 +3712,8 @@
       <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:44" ht="15" thickBot="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
       <c r="E15" s="60"/>
@@ -3721,7 +3721,7 @@
       <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:44" s="44" customFormat="1">
-      <c r="A16" s="100"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="61" t="s">
         <v>128</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="AR16" s="24"/>
     </row>
     <row r="17" spans="1:78" s="45" customFormat="1" ht="17" thickBot="1">
-      <c r="A17" s="101"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="43" t="s">
         <v>129</v>
       </c>
@@ -3865,10 +3865,10 @@
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:78" ht="14">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="103" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="60"/>
@@ -3878,24 +3878,24 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:78" ht="14">
-      <c r="A20" s="95"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="104"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
       <c r="I20" s="32"/>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:78" ht="14">
-      <c r="A21" s="95"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="104"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="I21" s="32"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:78" ht="14">
-      <c r="A22" s="95"/>
-      <c r="B22" s="104" t="s">
+      <c r="A22" s="96"/>
+      <c r="B22" s="105" t="s">
         <v>133</v>
       </c>
       <c r="F22" s="60"/>
@@ -3903,15 +3903,15 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:78" ht="14">
-      <c r="A23" s="95"/>
-      <c r="B23" s="104"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="105"/>
       <c r="F23" s="38"/>
       <c r="I23" s="32"/>
       <c r="P23" s="32"/>
     </row>
     <row r="24" spans="1:78" ht="14">
-      <c r="A24" s="95"/>
-      <c r="B24" s="104" t="s">
+      <c r="A24" s="96"/>
+      <c r="B24" s="105" t="s">
         <v>134</v>
       </c>
       <c r="G24" s="36"/>
@@ -3925,8 +3925,8 @@
       <c r="P24" s="32"/>
     </row>
     <row r="25" spans="1:78" ht="14">
-      <c r="A25" s="95"/>
-      <c r="B25" s="104"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="105"/>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
       <c r="I25" s="60"/>
@@ -3938,8 +3938,8 @@
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:78" ht="14">
-      <c r="A26" s="95"/>
-      <c r="B26" s="104"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="105"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="48"/>
@@ -3951,8 +3951,8 @@
       <c r="P26" s="32"/>
     </row>
     <row r="27" spans="1:78" ht="14">
-      <c r="A27" s="95"/>
-      <c r="B27" s="104"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="105"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
       <c r="I27" s="49"/>
@@ -3964,8 +3964,8 @@
       <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:78" ht="14">
-      <c r="A28" s="95"/>
-      <c r="B28" s="104"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="105"/>
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
       <c r="I28" s="59"/>
@@ -3977,7 +3977,7 @@
       <c r="P28" s="32"/>
     </row>
     <row r="29" spans="1:78" s="44" customFormat="1" ht="17">
-      <c r="A29" s="100"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="50" t="s">
         <v>135</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:78" ht="17" thickBot="1">
-      <c r="A30" s="94"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="52" t="s">
         <v>137</v>
       </c>
@@ -4013,7 +4013,7 @@
       <c r="Q31" s="42"/>
     </row>
     <row r="32" spans="1:78">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="94" t="s">
         <v>139</v>
       </c>
       <c r="B32" s="54" t="s">
@@ -4024,7 +4024,7 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:21" ht="17" thickBot="1">
-      <c r="A33" s="94"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="52" t="s">
         <v>141</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="R34" s="42"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="94" t="s">
         <v>143</v>
       </c>
       <c r="B35" s="54" t="s">
@@ -4063,7 +4063,7 @@
       <c r="P35" s="59"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="95"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="55" t="s">
         <v>145</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="P36" s="60"/>
     </row>
     <row r="37" spans="1:21" ht="17" thickBot="1">
-      <c r="A37" s="94"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="52" t="s">
         <v>146</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="Q38" s="42"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="94" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="54" t="s">
@@ -4109,7 +4109,7 @@
       <c r="U39" s="60"/>
     </row>
     <row r="40" spans="1:21" s="57" customFormat="1" ht="17" thickBot="1">
-      <c r="A40" s="96"/>
+      <c r="A40" s="97"/>
       <c r="B40" s="56" t="s">
         <v>150</v>
       </c>
@@ -4148,8 +4148,8 @@
   </sheetPr>
   <dimension ref="B1:BO14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -4173,13 +4173,13 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
@@ -4187,66 +4187,66 @@
         <v>8</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="105" t="s">
+      <c r="K2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="109"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="115"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="105" t="s">
+      <c r="P2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="109"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="115"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="105" t="s">
+      <c r="V2" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="109"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="115"/>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="105" t="s">
+      <c r="AA2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="109"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="115"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="105" t="s">
+      <c r="AH2" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="106"/>
-      <c r="AM2" s="106"/>
-      <c r="AN2" s="106"/>
+      <c r="AI2" s="113"/>
+      <c r="AJ2" s="113"/>
+      <c r="AK2" s="113"/>
+      <c r="AL2" s="113"/>
+      <c r="AM2" s="113"/>
+      <c r="AN2" s="113"/>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:67" s="6" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="114" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -4273,12 +4273,12 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="112"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="20">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -5250,18 +5250,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="AA2:AF2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="AA2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="H5:BO14">

--- a/document/项目安排计划/项目工作进度计划-曹俊燚.xlsx
+++ b/document/项目安排计划/项目工作进度计划-曹俊燚.xlsx
@@ -3,27 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2AE882-ABFC-DC4C-8C86-2243C6D5852D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCC8D8E-F59E-DF4D-A621-A4A336E9DBB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="14300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目标" sheetId="4" r:id="rId1"/>
     <sheet name="工作计划" sheetId="3" r:id="rId2"/>
     <sheet name="进度甘特表" sheetId="5" r:id="rId3"/>
-    <sheet name="项目规划表" sheetId="1" r:id="rId4"/>
+    <sheet name="项目规划表（执行情况）" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ActualBeyond">PeriodInActual*(项目规划表!$E1&gt;0)</definedName>
+    <definedName name="ActualBeyond">PeriodInActual*('项目规划表（执行情况）'!$E1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">(项目规划表!A$4=MEDIAN(项目规划表!A$4,项目规划表!$E1,项目规划表!$E1+项目规划表!$F1)*(项目规划表!$E1&gt;0))*((项目规划表!A$4&lt;(INT(项目规划表!$E1+项目规划表!$F1*项目规划表!$G1)))+(项目规划表!A$4=项目规划表!$E1))*(项目规划表!$G1&gt;0)</definedName>
-    <definedName name="period_selected">项目规划表!$H$2</definedName>
-    <definedName name="PeriodInActual">项目规划表!A$4=MEDIAN(项目规划表!A$4,项目规划表!$E1,项目规划表!$E1+项目规划表!$F1-1)</definedName>
-    <definedName name="PeriodInPlan">项目规划表!A$4=MEDIAN(项目规划表!A$4,项目规划表!$C1,项目规划表!$C1+项目规划表!$D1-1)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">项目规划表!$3:$4</definedName>
-    <definedName name="TitleRegion..BO60">项目规划表!$B$3:$B$4</definedName>
-    <definedName name="计划">PeriodInPlan*(项目规划表!$C1&gt;0)</definedName>
-    <definedName name="实际值">(PeriodInActual*(项目规划表!$E1&gt;0))*PeriodInPlan</definedName>
+    <definedName name="PercentCompleteBeyond">('项目规划表（执行情况）'!A$4=MEDIAN('项目规划表（执行情况）'!A$4,'项目规划表（执行情况）'!$E1,'项目规划表（执行情况）'!$E1+'项目规划表（执行情况）'!$F1)*('项目规划表（执行情况）'!$E1&gt;0))*(('项目规划表（执行情况）'!A$4&lt;(INT('项目规划表（执行情况）'!$E1+'项目规划表（执行情况）'!$F1*'项目规划表（执行情况）'!$G1)))+('项目规划表（执行情况）'!A$4='项目规划表（执行情况）'!$E1))*('项目规划表（执行情况）'!$G1&gt;0)</definedName>
+    <definedName name="period_selected">'项目规划表（执行情况）'!$H$2</definedName>
+    <definedName name="PeriodInActual">'项目规划表（执行情况）'!A$4=MEDIAN('项目规划表（执行情况）'!A$4,'项目规划表（执行情况）'!$E1,'项目规划表（执行情况）'!$E1+'项目规划表（执行情况）'!$F1-1)</definedName>
+    <definedName name="PeriodInPlan">'项目规划表（执行情况）'!A$4=MEDIAN('项目规划表（执行情况）'!A$4,'项目规划表（执行情况）'!$C1,'项目规划表（执行情况）'!$C1+'项目规划表（执行情况）'!$D1-1)</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'项目规划表（执行情况）'!$3:$4</definedName>
+    <definedName name="TitleRegion..BO60">'项目规划表（执行情况）'!$B$3:$B$4</definedName>
+    <definedName name="计划">PeriodInPlan*('项目规划表（执行情况）'!$C1&gt;0)</definedName>
+    <definedName name="实际值">(PeriodInActual*('项目规划表（执行情况）'!$E1&gt;0))*PeriodInPlan</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -2148,6 +2148,42 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2193,12 +2229,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2211,36 +2241,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2277,6 +2277,21 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2291,21 +2306,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="58">
@@ -2793,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5208A4A-0CCA-7A4D-B17A-0F3F8A32E141}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="75" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
@@ -2810,17 +2810,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -2852,82 +2852,82 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="91" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="67"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="82"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="67"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="82"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="83"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="1:9" ht="16" thickBot="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
     </row>
     <row r="8" spans="1:9" ht="45">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="70" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -2936,113 +2936,113 @@
       <c r="C8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="72" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="74" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60">
-      <c r="A9" s="88"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="91"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="63"/>
     </row>
     <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="88"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="88"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="88"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="88"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
     </row>
     <row r="13" spans="1:9" ht="120">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="64" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="89" t="s">
+      <c r="E13" s="64" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="91" t="s">
+      <c r="G13" s="63" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -3053,17 +3053,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="91" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="89"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="17" t="s">
         <v>63</v>
       </c>
@@ -3072,15 +3072,15 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="89"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="17" t="s">
         <v>66</v>
       </c>
@@ -3089,20 +3089,20 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="60">
-      <c r="A16" s="89"/>
-      <c r="B16" s="91" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="63" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89" t="s">
+      <c r="G16" s="64"/>
+      <c r="H16" s="64" t="s">
         <v>33</v>
       </c>
       <c r="I16" s="29" t="s">
@@ -3110,53 +3110,53 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="90">
-      <c r="A18" s="89"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
-      <c r="A19" s="89"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="29" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="89"/>
+      <c r="G19" s="64"/>
       <c r="H19" s="17" t="s">
         <v>77</v>
       </c>
@@ -3165,19 +3165,19 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
-      <c r="A20" s="89"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="89"/>
+      <c r="G20" s="64"/>
       <c r="H20" s="17" t="s">
         <v>33</v>
       </c>
@@ -3186,17 +3186,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="16">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="17" t="s">
@@ -3208,19 +3208,19 @@
       <c r="C22" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="64" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="89" t="s">
+      <c r="G22" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="89" t="s">
+      <c r="H22" s="64" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="17" t="s">
@@ -3234,32 +3234,32 @@
       <c r="C23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16">
-      <c r="A24" s="92" t="s">
+      <c r="A24" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="64" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="17" t="s">
@@ -3268,17 +3268,17 @@
       <c r="C25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="64" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89" t="s">
+      <c r="G25" s="64"/>
+      <c r="H25" s="64" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="17" t="s">
@@ -3286,65 +3286,65 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="89"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89" t="s">
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="91" t="s">
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="63" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="91"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="63"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="91"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:9" ht="16">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="64" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -3353,44 +3353,76 @@
       <c r="C30" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="D30" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="89" t="s">
+      <c r="E30" s="64" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="89"/>
+      <c r="G30" s="64"/>
       <c r="H30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="89" t="s">
+      <c r="I30" s="64" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="89"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="17" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="89"/>
+      <c r="G31" s="64"/>
       <c r="H31" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="89"/>
+      <c r="I31" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
@@ -3406,38 +3438,6 @@
     <mergeCell ref="G25:G28"/>
     <mergeCell ref="H25:H28"/>
     <mergeCell ref="F26:F28"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4148,7 +4148,7 @@
   </sheetPr>
   <dimension ref="B1:BO14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
@@ -4173,13 +4173,13 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
@@ -4187,66 +4187,66 @@
         <v>8</v>
       </c>
       <c r="J2" s="10"/>
-      <c r="K2" s="112" t="s">
+      <c r="K2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="115"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="110"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="112" t="s">
+      <c r="P2" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="115"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="110"/>
       <c r="U2" s="12"/>
-      <c r="V2" s="112" t="s">
+      <c r="V2" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="115"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="110"/>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="112" t="s">
+      <c r="AA2" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="115"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="110"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="112" t="s">
+      <c r="AH2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="113"/>
-      <c r="AN2" s="113"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21"/>
     </row>
     <row r="3" spans="2:67" s="6" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="108" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="15" t="s">
@@ -4273,12 +4273,12 @@
       <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="109"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="2">
         <v>1</v>
       </c>
@@ -5250,18 +5250,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="H5:BO14">
